--- a/7thBattalionMay1915.xlsx
+++ b/7thBattalionMay1915.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2485347-0C99-4ABB-A2A8-A708FB7798AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E764DDED-132C-41E8-8725-7BA9C18B2103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21465" yWindow="2160" windowWidth="18465" windowHeight="9300" xr2:uid="{455A0AE0-7A06-44B3-A02A-AD6997852563}"/>
+    <workbookView xWindow="16680" yWindow="2340" windowWidth="18465" windowHeight="9300" xr2:uid="{455A0AE0-7A06-44B3-A02A-AD6997852563}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="7thBattalionMay1915" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7thBattalionMay1915'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Location</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Gonnehem</t>
-  </si>
-  <si>
-    <t>La Bourse</t>
   </si>
   <si>
     <t>Loos</t>
@@ -591,8 +588,8 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:A40"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +777,7 @@
         <v>2.5515441000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -788,16 +785,16 @@
         <v>42276</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>50.5436172</v>
+        <v>50</v>
+      </c>
+      <c r="C11" s="4">
+        <v>50.494878</v>
       </c>
       <c r="D11">
-        <v>2.8701878000000001</v>
+        <v>2.7004600000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -805,7 +802,7 @@
         <v>42277</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4">
         <v>50.457473</v>
@@ -814,7 +811,7 @@
         <v>2.7927810000000002</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -822,7 +819,7 @@
         <v>42278</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4">
         <v>50.464596</v>
@@ -831,7 +828,7 @@
         <v>2.8076620000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -839,7 +836,7 @@
         <v>42281</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6">
         <v>50.46687</v>
@@ -848,7 +845,7 @@
         <v>2.796926</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -856,7 +853,7 @@
         <v>42284</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>50.491887200000001</v>
@@ -865,7 +862,7 @@
         <v>2.7186943000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -873,7 +870,7 @@
         <v>42290</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6">
         <v>50.499650000000003</v>
@@ -882,7 +879,7 @@
         <v>2.77494</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -890,7 +887,7 @@
         <v>42292</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4">
         <v>50.495556999999998</v>
@@ -899,7 +896,7 @@
         <v>2.7844220000000002</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -907,7 +904,7 @@
         <v>42296</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4">
         <v>50.494245999999997</v>
@@ -916,7 +913,7 @@
         <v>2.7935050000000001</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -924,7 +921,7 @@
         <v>42297</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>50.491887200000001</v>
@@ -933,7 +930,7 @@
         <v>2.72</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -941,7 +938,7 @@
         <v>42298</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>50.529969600000001</v>
@@ -950,7 +947,7 @@
         <v>2.6262417999999998</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -958,7 +955,7 @@
         <v>42303</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4">
         <v>50.498919999999998</v>
@@ -967,7 +964,7 @@
         <v>2.7773639999999999</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,7 +972,7 @@
         <v>42306</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4">
         <v>50.500715999999997</v>
@@ -984,7 +981,7 @@
         <v>2.741053</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -992,7 +989,7 @@
         <v>42308</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="4">
         <v>50.498919999999998</v>
@@ -1001,7 +998,7 @@
         <v>2.7773639999999999</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1009,7 +1006,7 @@
         <v>42309</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4">
         <v>50.500715999999997</v>
@@ -1018,7 +1015,7 @@
         <v>2.741053</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1026,7 +1023,7 @@
         <v>42311</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4">
         <v>50.498919999999998</v>
@@ -1035,7 +1032,7 @@
         <v>2.7770000000000001</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,7 +1040,7 @@
         <v>42314</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="4">
         <v>50.500715999999997</v>
@@ -1052,7 +1049,7 @@
         <v>2.741053</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1060,7 +1057,7 @@
         <v>42316</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>50.529969600000001</v>
@@ -1069,7 +1066,7 @@
         <v>2.6262417999999998</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,7 +1074,7 @@
         <v>42324</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4">
         <v>50.494878</v>
@@ -1086,7 +1083,7 @@
         <v>2.7004730000000001</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,7 +1091,7 @@
         <v>42328</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="4">
         <v>50.500430000000001</v>
@@ -1103,7 +1100,7 @@
         <v>2.750089</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,7 +1108,7 @@
         <v>42330</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="4">
         <v>50.494878</v>
@@ -1120,7 +1117,7 @@
         <v>2.7004730000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,7 +1125,7 @@
         <v>5809</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>50.529969600000001</v>
@@ -1137,7 +1134,7 @@
         <v>2.6262417999999998</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1145,7 +1142,7 @@
         <v>42335</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32">
         <v>50.650576100000002</v>
@@ -1154,7 +1151,7 @@
         <v>2.4611417000000002</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
